--- a/nmadb/501321.xlsx
+++ b/nmadb/501321.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
@@ -11,20 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>trt</t>
-  </si>
-  <si>
-    <t>MD</t>
   </si>
   <si>
     <t>SE</t>
@@ -200,12 +194,21 @@
   <si>
     <t>Derosa</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +231,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -249,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +287,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -366,7 +380,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -401,7 +414,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,14 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80:H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="7"/>
     <col min="2" max="2" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -594,41 +606,44 @@
     <col min="10" max="10" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="7">
         <v>2005</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -645,8 +660,12 @@
       <c r="G2" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>F2*SQRT(G2)</f>
+        <v>0.78102496759066542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -662,19 +681,23 @@
       <c r="G3" s="1">
         <v>61</v>
       </c>
+      <c r="H3">
+        <f>F3*SQRT(G3)</f>
+        <v>0.78102496759066542</v>
+      </c>
       <c r="J3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="7">
         <v>2006</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -691,14 +714,18 @@
       <c r="G4" s="1">
         <v>129</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="0">F4*SQRT(G4)</f>
+        <v>0.90862533532804379</v>
+      </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="C5" s="1">
         <v>2</v>
       </c>
@@ -714,19 +741,23 @@
       <c r="G5" s="1">
         <v>133</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.9226050075736637</v>
+      </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="7">
         <v>2005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -743,14 +774,18 @@
       <c r="G6" s="7">
         <v>313</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.9460986614249545</v>
+      </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="C7" s="1">
         <v>3</v>
       </c>
@@ -766,19 +801,23 @@
       <c r="G7" s="7">
         <v>317</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.9584943196241342</v>
+      </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K7" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="7">
         <v>2006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -795,14 +834,18 @@
       <c r="G8" s="7">
         <v>96</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.78383671769061691</v>
+      </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -818,19 +861,23 @@
       <c r="G9" s="7">
         <v>107</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.72408563029520212</v>
+      </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="7">
         <v>2007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -847,14 +894,18 @@
       <c r="G10" s="7">
         <v>584</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.96664367788756578</v>
+      </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -870,19 +921,23 @@
       <c r="G11" s="7">
         <v>588</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.96994845223857129</v>
+      </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="7">
         <v>2009</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <v>6</v>
@@ -899,14 +954,18 @@
       <c r="G12" s="7">
         <v>1393</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.74645830426086091</v>
+      </c>
       <c r="J12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K12" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="C13" s="1">
         <v>6</v>
       </c>
@@ -922,13 +981,17 @@
       <c r="G13" s="7">
         <v>1396</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.74726166769077629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="7">
         <v>2010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>7</v>
@@ -945,8 +1008,12 @@
       <c r="G14" s="7">
         <v>494</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.3335666462535722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="C15" s="1">
         <v>7</v>
       </c>
@@ -962,13 +1029,17 @@
       <c r="G15" s="7">
         <v>513</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.358970198348735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="7">
         <v>2010</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -985,8 +1056,12 @@
       <c r="G16" s="7">
         <v>430</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.82945765413310879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="C17" s="1">
         <v>8</v>
       </c>
@@ -1002,13 +1077,17 @@
       <c r="G17" s="7">
         <v>428</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.82752643462308817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>2011</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>9</v>
@@ -1025,8 +1104,12 @@
       <c r="G18" s="7">
         <v>519</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.91126285999156142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="C19" s="1">
         <v>9</v>
       </c>
@@ -1042,13 +1125,17 @@
       <c r="G19" s="7">
         <v>516</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>0.90862533532804379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="7">
         <v>2009</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>10</v>
@@ -1065,8 +1152,12 @@
       <c r="G20" s="7">
         <v>121</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="C21" s="1">
         <v>10</v>
       </c>
@@ -1082,8 +1173,12 @@
       <c r="G21" s="7">
         <v>242</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1.5556349186104046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="C22" s="1">
         <v>10</v>
       </c>
@@ -1099,13 +1194,17 @@
       <c r="G22" s="7">
         <v>242</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1.5556349186104046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="7">
         <v>2011</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>11</v>
@@ -1122,8 +1221,12 @@
       <c r="G23" s="7">
         <v>231</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1.215894732285653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="C24" s="1">
         <v>11</v>
       </c>
@@ -1139,13 +1242,17 @@
       <c r="G24" s="7">
         <v>233</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.2211470017978998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="7">
         <v>2006</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <v>12</v>
@@ -1162,8 +1269,12 @@
       <c r="G25" s="7">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1.6015617378046967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="C26" s="1">
         <v>12</v>
       </c>
@@ -1179,13 +1290,17 @@
       <c r="G26" s="7">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1.5588457268119895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="7">
         <v>1999</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <v>13</v>
@@ -1202,8 +1317,12 @@
       <c r="G27" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1.2470765814495917</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="C28" s="1">
         <v>13</v>
       </c>
@@ -1219,13 +1338,17 @@
       <c r="G28" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1.1951150572225253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="7">
         <v>2002</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <v>14</v>
@@ -1242,8 +1365,12 @@
       <c r="G29" s="7">
         <v>152</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2.9589187214251083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="C30" s="1">
         <v>14</v>
       </c>
@@ -1259,13 +1386,17 @@
       <c r="G30" s="7">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2.9092954473549093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="7">
         <v>1998</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>15</v>
@@ -1282,8 +1413,12 @@
       <c r="G31" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>1.3763720427268202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="C32" s="1">
         <v>15</v>
       </c>
@@ -1299,13 +1434,17 @@
       <c r="G32" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>1.3763720427268202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="7">
         <v>2000</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <v>16</v>
@@ -1322,8 +1461,12 @@
       <c r="G33" s="7">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>1.3386560424545209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="C34" s="1">
         <v>16</v>
       </c>
@@ -1339,13 +1482,17 @@
       <c r="G34" s="7">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.2289833196589772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="7">
         <v>2001</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1">
         <v>17</v>
@@ -1362,8 +1509,12 @@
       <c r="G35" s="7">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.1258330249197703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="C36" s="1">
         <v>17</v>
       </c>
@@ -1379,13 +1530,17 @@
       <c r="G36" s="7">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.140745370360976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="7">
         <v>2003</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>18</v>
@@ -1402,8 +1557,12 @@
       <c r="G37" s="7">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>1.18033893437436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="C38" s="1">
         <v>18</v>
       </c>
@@ -1419,13 +1578,17 @@
       <c r="G38" s="7">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.82219219164377866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="7">
         <v>2000</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
         <v>19</v>
@@ -1442,8 +1605,12 @@
       <c r="G39" s="7">
         <v>160</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1.5178932768808222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="C40" s="1">
         <v>19</v>
       </c>
@@ -1459,13 +1626,17 @@
       <c r="G40" s="7">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.4257629536497294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="7">
         <v>2009</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1">
         <v>20</v>
@@ -1482,8 +1653,12 @@
       <c r="G41" s="7">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.92736184954957046</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="C42" s="1">
         <v>20</v>
       </c>
@@ -1499,13 +1674,17 @@
       <c r="G42" s="7">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0.81993902212298686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="7">
         <v>2008</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
         <v>21</v>
@@ -1522,8 +1701,12 @@
       <c r="G43" s="7">
         <v>281</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>1.6763054614240211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="C44" s="1">
         <v>21</v>
       </c>
@@ -1539,13 +1722,17 @@
       <c r="G44" s="7">
         <v>295</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1.7175564037317668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="7">
         <v>2010</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1">
         <v>22</v>
@@ -1562,8 +1749,12 @@
       <c r="G45" s="7">
         <v>165</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>1.2845232578665131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="C46" s="1">
         <v>22</v>
       </c>
@@ -1579,8 +1770,12 @@
       <c r="G46" s="7">
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>1.2884098726725126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="C47" s="1">
         <v>22</v>
       </c>
@@ -1596,13 +1791,17 @@
       <c r="G47" s="7">
         <v>160</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>1.0119288512538815</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="7">
         <v>2004</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1">
         <v>23</v>
@@ -1619,8 +1818,12 @@
       <c r="G48" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>0.71414284285428509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="C49" s="1">
         <v>23</v>
       </c>
@@ -1636,13 +1839,17 @@
       <c r="G49" s="7">
         <v>56</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>0.74833147735478833</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="7">
         <v>2006</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C50" s="1">
         <v>24</v>
@@ -1659,8 +1866,12 @@
       <c r="G50" s="7">
         <v>237</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.92368825910043906</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="C51" s="1">
         <v>24</v>
       </c>
@@ -1676,13 +1887,17 @@
       <c r="G51" s="7">
         <v>464</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>1.0770329614269007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>2007</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1">
         <v>25</v>
@@ -1699,8 +1914,12 @@
       <c r="G52" s="7">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>1.1401754250991381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="C53" s="1">
         <v>25</v>
       </c>
@@ -1716,13 +1935,17 @@
       <c r="G53" s="7">
         <v>143</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>1.1958260743101399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>2008</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="1">
         <v>26</v>
@@ -1739,8 +1962,12 @@
       <c r="G54" s="7">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>0.67141641326378076</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="C55" s="1">
         <v>26</v>
       </c>
@@ -1756,13 +1983,17 @@
       <c r="G55" s="7">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0.6786751800382862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="7">
         <v>2008</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" s="1">
         <v>27</v>
@@ -1779,8 +2010,12 @@
       <c r="G56" s="7">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>1.2603967629282458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="C57" s="1">
         <v>27</v>
       </c>
@@ -1796,13 +2031,17 @@
       <c r="G57" s="7">
         <v>96</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>1.2737346662472526</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="7">
         <v>2009</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C58" s="1">
         <v>28</v>
@@ -1819,8 +2058,12 @@
       <c r="G58" s="7">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>1.2149897118905988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="C59" s="1">
         <v>28</v>
       </c>
@@ -1836,13 +2079,17 @@
       <c r="G59" s="7">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>1.2298373876248845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1">
         <v>29</v>
@@ -1859,8 +2106,12 @@
       <c r="G60" s="7">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>1.019803902718557</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="C61" s="1">
         <v>29</v>
       </c>
@@ -1876,13 +2127,17 @@
       <c r="G61" s="7">
         <v>213</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>1.4594519519326425</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>2009</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C62" s="1">
         <v>30</v>
@@ -1899,8 +2154,12 @@
       <c r="G62" s="7">
         <v>179</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0.93653617121817578</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="C63" s="1">
         <v>30</v>
       </c>
@@ -1916,13 +2175,17 @@
       <c r="G63" s="7">
         <v>191</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>0.96741924727596784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>2010</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C64" s="1">
         <v>31</v>
@@ -1939,8 +2202,12 @@
       <c r="G64" s="7">
         <v>71</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0.75835347958587229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="C65" s="1">
         <v>31</v>
       </c>
@@ -1956,13 +2223,17 @@
       <c r="G65" s="7">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0.81240384046359615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="7">
         <v>2011</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C66" s="1">
         <v>32</v>
@@ -1979,8 +2250,12 @@
       <c r="G66" s="7">
         <v>177</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0.79824808173900419</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="C67" s="1">
         <v>32</v>
       </c>
@@ -1996,13 +2271,17 @@
       <c r="G67" s="7">
         <v>523</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>0.9147677300823418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="7">
         <v>2010</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68" s="1">
         <v>33</v>
@@ -2019,8 +2298,12 @@
       <c r="G68" s="7">
         <v>219</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" ref="H68:H81" si="1">F68*SQRT(G68)</f>
+        <v>1.0359054010864119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="C69" s="1">
         <v>33</v>
       </c>
@@ -2036,13 +2319,17 @@
       <c r="G69" s="7">
         <v>221</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="1"/>
+        <v>1.0406248123122954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="7">
         <v>2005</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C70" s="1">
         <v>34</v>
@@ -2059,8 +2346,12 @@
       <c r="G70" s="7">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="1"/>
+        <v>1.063014581273465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="C71" s="1">
         <v>34</v>
       </c>
@@ -2076,13 +2367,17 @@
       <c r="G71" s="7">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f t="shared" si="1"/>
+        <v>1.063014581273465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>2007</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C72" s="1">
         <v>35</v>
@@ -2099,8 +2394,12 @@
       <c r="G72" s="7">
         <v>76</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="1"/>
+        <v>1.1333137253205752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="C73" s="1">
         <v>35</v>
       </c>
@@ -2116,13 +2415,17 @@
       <c r="G73" s="7">
         <v>76</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="1"/>
+        <v>1.0461357464497618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>2009</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C74" s="1">
         <v>36</v>
@@ -2139,8 +2442,12 @@
       <c r="G74" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f t="shared" si="1"/>
+        <v>1.1489125293076057</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="C75" s="1">
         <v>36</v>
       </c>
@@ -2156,13 +2463,17 @@
       <c r="G75" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="7">
         <v>2007</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="1">
         <v>37</v>
@@ -2179,8 +2490,12 @@
       <c r="G76" s="7">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>1.3332291625973383</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="C77" s="1">
         <v>37</v>
       </c>
@@ -2196,13 +2511,17 @@
       <c r="G77" s="7">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>1.2364465212858988</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1">
         <v>38</v>
@@ -2219,8 +2538,12 @@
       <c r="G78" s="7">
         <v>287</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>1.6941074346097418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="C79" s="1">
         <v>38</v>
       </c>
@@ -2236,13 +2559,17 @@
       <c r="G79" s="7">
         <v>283</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>1.6822603841260724</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="7">
         <v>2011</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C80" s="1">
         <v>39</v>
@@ -2256,8 +2583,13 @@
       <c r="F80" s="9">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="11"/>
+      <c r="H80" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
       <c r="C81" s="1">
         <v>39</v>
       </c>
@@ -2269,6 +2601,11 @@
       </c>
       <c r="F81" s="9">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2278,24 +2615,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
